--- a/DSA/Article.xlsx
+++ b/DSA/Article.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12525"/>
+    <workbookView windowWidth="19470" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tail Recursion</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=_JtPhF8MshA</t>
+  </si>
+  <si>
+    <t>Big O Notation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BgLTDT03QtU&amp;t=240s</t>
   </si>
 </sst>
 </file>
@@ -30,11 +34,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +55,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,120 +162,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,187 +200,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,21 +391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,32 +403,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,9 +429,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,13 +462,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,145 +496,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.3" customWidth="1"/>
     <col min="2" max="2" width="104.5" customWidth="1"/>
@@ -1019,46 +1016,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=_JtPhF8MshA"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.youtube.com/watch?v=BgLTDT03QtU&amp;t=240s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/DSA/Article.xlsx
+++ b/DSA/Article.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tail Recursion</t>
   </si>
@@ -27,6 +27,18 @@
   <si>
     <t>https://www.youtube.com/watch?v=BgLTDT03QtU&amp;t=240s</t>
   </si>
+  <si>
+    <t>Binary Tree Vs Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/difference-between-binary-tree-and-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>DS applications</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d_XvFOkQz5k</t>
+  </si>
 </sst>
 </file>
 
@@ -34,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,6 +62,103 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,13 +172,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,115 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,73 +212,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,109 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,11 +406,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,32 +425,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -463,6 +455,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -476,162 +503,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.3" customWidth="1"/>
     <col min="2" max="2" width="104.5" customWidth="1"/>
@@ -1024,10 +1036,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=_JtPhF8MshA"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.youtube.com/watch?v=BgLTDT03QtU&amp;t=240s"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.geeksforgeeks.org/difference-between-binary-tree-and-binary-search-tree/"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://www.youtube.com/watch?v=d_XvFOkQz5k"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DSA/Article.xlsx
+++ b/DSA/Article.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tail Recursion</t>
   </si>
@@ -39,18 +39,24 @@
   <si>
     <t>https://www.youtube.com/watch?v=d_XvFOkQz5k</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ouipSd_5ivQ</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/real-time-application-of-data-structures/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +73,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -74,9 +94,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,22 +166,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,82 +202,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,79 +224,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,103 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,21 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,11 +442,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,26 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,142 +520,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,12 +665,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1008,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.3" customWidth="1"/>
     <col min="2" max="2" width="104.5" customWidth="1"/>
@@ -1052,12 +1067,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=_JtPhF8MshA"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.youtube.com/watch?v=BgLTDT03QtU&amp;t=240s"/>
     <hyperlink ref="B6" r:id="rId3" display="https://www.geeksforgeeks.org/difference-between-binary-tree-and-binary-search-tree/"/>
     <hyperlink ref="B8" r:id="rId4" display="https://www.youtube.com/watch?v=d_XvFOkQz5k"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://www.youtube.com/watch?v=ouipSd_5ivQ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DSA/Article.xlsx
+++ b/DSA/Article.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Tail Recursion</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_JtPhF8MshA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Big O Notation</t>
   </si>
@@ -52,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -76,6 +70,134 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,134 +208,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,25 +218,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,157 +320,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,10 +412,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -442,37 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,142 +514,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,13 +1017,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.3" customWidth="1"/>
     <col min="2" max="2" width="104.5" customWidth="1"/>
@@ -1059,32 +1053,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=_JtPhF8MshA"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.youtube.com/watch?v=BgLTDT03QtU&amp;t=240s"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.geeksforgeeks.org/difference-between-binary-tree-and-binary-search-tree/"/>
-    <hyperlink ref="B8" r:id="rId4" display="https://www.youtube.com/watch?v=d_XvFOkQz5k"/>
-    <hyperlink ref="B9" r:id="rId5" display="https://www.youtube.com/watch?v=ouipSd_5ivQ"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.youtube.com/watch?v=BgLTDT03QtU&amp;t=240s"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.geeksforgeeks.org/difference-between-binary-tree-and-binary-search-tree/"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.youtube.com/watch?v=d_XvFOkQz5k"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.youtube.com/watch?v=ouipSd_5ivQ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DSA/Article.xlsx
+++ b/DSA/Article.xlsx
@@ -45,12 +45,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,46 +59,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,8 +119,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,14 +182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,7 +195,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -165,47 +218,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,31 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,145 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,27 +442,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -468,20 +466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,170 +498,196 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,47 +1041,48 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="31.3" customWidth="1"/>
-    <col min="2" max="2" width="104.5" customWidth="1"/>
+    <col min="1" max="1" width="31.3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="104.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
